--- a/orcamentos/Prefeitura de Itapema_Itapema 2.xlsx
+++ b/orcamentos/Prefeitura de Itapema_Itapema 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D7D06-405D-4F26-A8AB-2A3272226A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1C0C21-7E9B-403C-B4DE-1B146E7F37DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,20 +17,32 @@
     <sheet name="paraFilter" sheetId="6" r:id="rId2"/>
     <sheet name="resultado" sheetId="5" r:id="rId3"/>
     <sheet name="cenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="Oeste" sheetId="8" r:id="rId5"/>
-    <sheet name="Centro" sheetId="7" r:id="rId6"/>
+    <sheet name="asdasd" sheetId="9" r:id="rId5"/>
+    <sheet name="Oeste" sheetId="8" r:id="rId6"/>
+    <sheet name="Centro" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -120,12 +132,45 @@
   </si>
   <si>
     <t>Oeste</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>GR01</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Chuva de estrelas produzida em estrutura metálica e mangueira luminosa</t>
+  </si>
+  <si>
+    <t>Figura luminosa bidimensional com desenho em forma de chuva de estrelas, medindo aproximadamente 1,00m de altura x 1,90m de largura, produzida em estrutura de barra chata de 1/8 x 3/8 de polegada, zincada, com proteção anticorrosiva resistente a exposição às intempéries. Aplicação de mangueira luminosa incandescente na cor cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro na tensão de 220v. A figura luminosa tem potência total aproximada de 192W.</t>
+  </si>
+  <si>
+    <t>Painel luminoso bidimensional com desenho em forma de chuva de estrelas, medindo entre: Mínimo: 0,95m de altura x 1,85m de largura / Máximo: 1,05m de altura x 1,95m de largura, produzido em barra chata 1/8 x 3/8 de aço carbono 1020, galvanização por imersão a base de zinco, visando a proteção de corrosões e exposição às intempéries. Contorno da figura em mangueira luminosa 13mm de diâmetro,  incandescente na cor cristal, em PVC flexível, com 36 micro lâmpadas por metro. Tensão de 220V. Potência da figura: 192W</t>
+  </si>
+  <si>
+    <t>wwww</t>
+  </si>
+  <si>
+    <t>eeeee</t>
+  </si>
+  <si>
+    <t>yyyyy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0,000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,9 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +485,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -561,6 +607,70 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45201</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -600,7 +710,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -636,14 +746,22 @@
         <v>29</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D62502-C803-43D5-9B80-141852AB4CED}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71D2AA0-3101-40E4-BC74-1D1A46E09EC5}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,14 +808,50 @@
         <v>28</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>C2*H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>C3*H3</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9D25E7-AD2D-4AE8-AED9-76D2DA3A17E5}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D62502-C803-43D5-9B80-141852AB4CED}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -744,6 +898,210 @@
         <v>28</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>C2*H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>C3*H3</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9D25E7-AD2D-4AE8-AED9-76D2DA3A17E5}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>192</v>
+      </c>
+      <c r="H2" s="2">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2">
+        <f>C2*H2</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>555</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>C3*H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>777</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>C4*H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>76777</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>C5*H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>C6*H6</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
